--- a/myapp/files/9_MethodComparePercent/Scenario 282.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 282.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>5868</v>
+        <v>15822</v>
       </c>
       <c r="F2" t="n">
-        <v>5.10527231599095</v>
+        <v>2.72448315407743</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -593,16 +593,16 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.8450184501845</v>
+      </c>
+      <c r="K2" t="n">
         <v>3</v>
       </c>
-      <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
       <c r="L2" t="n">
-        <v>2.77777777777778</v>
+        <v>4.16666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>3555</v>
+        <v>19240</v>
       </c>
       <c r="F3" t="n">
-        <v>3.09291804419697</v>
+        <v>3.31304865911071</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -631,16 +631,16 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>2.5830258302583</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>2.77777777777778</v>
+        <v>1.38888888888889</v>
       </c>
     </row>
     <row r="4">
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>4666</v>
+        <v>18946</v>
       </c>
       <c r="F4" t="n">
-        <v>4.0595093092048</v>
+        <v>3.26242307149228</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.3210332103321</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>3927</v>
+        <v>21715</v>
       </c>
       <c r="F5" t="n">
-        <v>3.41656516443362</v>
+        <v>3.73923345283727</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -707,10 +707,10 @@
         <v>5.55555555555556</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>2.66666666666667</v>
+        <v>3.690036900369</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>5480</v>
+        <v>19068</v>
       </c>
       <c r="F6" t="n">
-        <v>4.76770488950757</v>
+        <v>3.28343096839517</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3.690036900369</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>8391</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.44489559764023</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -783,10 +783,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.4760147601476</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>1891</v>
+        <v>25802</v>
       </c>
       <c r="F8" t="n">
-        <v>1.64520619453628</v>
+        <v>4.44299799908392</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -821,10 +821,10 @@
         <v>4.16666666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>1.33333333333333</v>
+        <v>3.690036900369</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>5245</v>
+        <v>38520</v>
       </c>
       <c r="F9" t="n">
-        <v>4.56325039150861</v>
+        <v>6.63298515327155</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>2.66666666666667</v>
+        <v>6.27306273062731</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>2535</v>
+        <v>45972</v>
       </c>
       <c r="F10" t="n">
-        <v>2.20549852096746</v>
+        <v>7.91618882311006</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -897,10 +897,10 @@
         <v>4.16666666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>7.01107011070111</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>1804</v>
+        <v>23318</v>
       </c>
       <c r="F11" t="n">
-        <v>1.56951452931965</v>
+        <v>4.01526344247108</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>1.33333333333333</v>
+        <v>4.4280442804428</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>2017</v>
+        <v>7259</v>
       </c>
       <c r="F12" t="n">
-        <v>1.75482860622934</v>
+        <v>1.24996986572166</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.66666666666667</v>
+        <v>2.2140221402214</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>8930</v>
+        <v>32916</v>
       </c>
       <c r="F13" t="n">
-        <v>7.76927092396033</v>
+        <v>5.66799946274887</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6.66666666666667</v>
+        <v>5.53505535055351</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>9656</v>
+        <v>51871</v>
       </c>
       <c r="F14" t="n">
-        <v>8.40090481990604</v>
+        <v>8.93197229712743</v>
       </c>
       <c r="G14" t="n">
         <v>11</v>
@@ -1049,10 +1049,10 @@
         <v>15.2777777777778</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J14" t="n">
-        <v>10.6666666666667</v>
+        <v>9.22509225092251</v>
       </c>
       <c r="K14" t="n">
         <v>9</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>19774</v>
+        <v>64530</v>
       </c>
       <c r="F15" t="n">
-        <v>17.2037584826866</v>
+        <v>11.1117998946161</v>
       </c>
       <c r="G15" t="n">
         <v>9</v>
@@ -1087,10 +1087,10 @@
         <v>12.5</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>13.3333333333333</v>
+        <v>10.3321033210332</v>
       </c>
       <c r="K15" t="n">
         <v>10</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>11750</v>
+        <v>29209</v>
       </c>
       <c r="F16" t="n">
-        <v>10.2227248999478</v>
+        <v>5.02966934947842</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -1125,10 +1125,10 @@
         <v>6.94444444444444</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J16" t="n">
-        <v>9.33333333333333</v>
+        <v>5.90405904059041</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2997</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.516071041130707</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.738007380073801</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>15920</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.74135834995024</v>
       </c>
       <c r="G18" t="n">
         <v>4</v>
@@ -1201,10 +1201,10 @@
         <v>5.55555555555556</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.9520295202952</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>35532</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>6.11846387502712</v>
       </c>
       <c r="G19" t="n">
         <v>5</v>
@@ -1239,10 +1239,10 @@
         <v>6.94444444444444</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.4280442804428</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>1224</v>
+        <v>42806</v>
       </c>
       <c r="F20" t="n">
-        <v>1.06490342787541</v>
+        <v>7.37101667889257</v>
       </c>
       <c r="G20" t="n">
         <v>10</v>
@@ -1277,10 +1277,10 @@
         <v>13.8888888888889</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J20" t="n">
-        <v>1.33333333333333</v>
+        <v>5.16605166051661</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>4050</v>
+        <v>13542</v>
       </c>
       <c r="F21" t="n">
-        <v>3.52357751870541</v>
+        <v>2.33187655622023</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>2.9520295202952</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>82</v>
+        <v>2043</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0713415695145293</v>
+        <v>0.351796175185197</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.33333333333333</v>
+        <v>0.738007380073801</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>5292</v>
+        <v>10037</v>
       </c>
       <c r="F23" t="n">
-        <v>4.6041412911084</v>
+        <v>1.72833000995292</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.66666666666667</v>
+        <v>1.8450184501845</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>1042</v>
+        <v>11928</v>
       </c>
       <c r="F24" t="n">
-        <v>0.906559944318775</v>
+        <v>2.05395241194764</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
@@ -1429,10 +1429,10 @@
         <v>5.55555555555556</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>2.66666666666667</v>
+        <v>2.5830258302583</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>5382</v>
+        <v>12524</v>
       </c>
       <c r="F25" t="n">
-        <v>4.6824430137463</v>
+        <v>2.15658115419452</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1467,10 +1467,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J25" t="n">
-        <v>10.6666666666667</v>
+        <v>5.16605166051661</v>
       </c>
       <c r="K25" t="n">
         <v>3</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>10770</v>
+        <v>10826</v>
       </c>
       <c r="F26" t="n">
-        <v>9.37010614233513</v>
+        <v>1.86419255631666</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -1505,10 +1505,10 @@
         <v>4.16666666666667</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>6.66666666666667</v>
+        <v>2.2140221402214</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
